--- a/IA/003 - Reports/20220324 - Heroes Report.xlsx
+++ b/IA/003 - Reports/20220324 - Heroes Report.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vx221vs\DesafioTraineeGrupo03\001 - Support Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VX221VS\DesafioTraineeGrupo03\IA\003 - Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DC6343-57B8-48E7-880E-88F3DEA40104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4BE724-315E-49B8-AE79-60FA16BB929A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40950" yWindow="3555" windowWidth="21600" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="heroesData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,24 +25,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>NOME DO HERÓI</t>
-  </si>
-  <si>
-    <t>UNIVERSO</t>
-  </si>
-  <si>
-    <t>SUPER PODERES</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>EXCEPTION</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+  <si>
+    <t>20220324121703_1</t>
+  </si>
+  <si>
+    <t>GOKU (CAPSULE CORP)</t>
+  </si>
+  <si>
+    <t>Dragon Ball Verse</t>
+  </si>
+  <si>
+    <t>Absorption, Acausality, Bullet Time, Levitation, Telephathy</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/22520.jpg?v=1628766226</t>
+  </si>
+  <si>
+    <t>3 - Completed</t>
+  </si>
+  <si>
+    <t>20220324121703_2</t>
+  </si>
+  <si>
+    <t>AARAVOS</t>
+  </si>
+  <si>
+    <t>Dragon Prince Universe</t>
+  </si>
+  <si>
+    <t>Ability Shift, Arcane Magic, Energy Blasts, Necromancy</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/29340.jpg?v=1618640087</t>
+  </si>
+  <si>
+    <t>20220324121703_3</t>
+  </si>
+  <si>
+    <t>ALL-FATHER ULTRON</t>
+  </si>
+  <si>
+    <t>Marvel's All-Father Ultron</t>
+  </si>
+  <si>
+    <t>Longevity, Magic, Marksmanship, Weapons Master, Chi Manipulation, Latent Abilities</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/12614.jpg?v=1617697113</t>
+  </si>
+  <si>
+    <t>20220324121703_4</t>
+  </si>
+  <si>
+    <t>EKKO</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Afterimage Creation, Reflexes, Time Manipulation, Accelerated Healing</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/46883.jpg?v=1647992716</t>
+  </si>
+  <si>
+    <t>20220324121703_5</t>
+  </si>
+  <si>
+    <t>ARCEUS</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Dimension Travel, Astral Travel, Time Manipulation Resistance, Time Travel</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/12299.jpg?v=1605565373</t>
+  </si>
+  <si>
+    <t>20220324121703_6</t>
+  </si>
+  <si>
+    <t>TYR</t>
+  </si>
+  <si>
+    <t>Norse Mithology</t>
+  </si>
+  <si>
+    <t>Cold Resistance, Stamina, Super Speed, Super Strength</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/19842.jpg?v=1608917433</t>
+  </si>
+  <si>
+    <t>20220324121703_7</t>
+  </si>
+  <si>
+    <t>ULTRAMAN 80</t>
+  </si>
+  <si>
+    <t>Ultra Series Verse</t>
+  </si>
+  <si>
+    <t>Damage Boost, Force Fields, Resurrection</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/45357.jpg?v=1645375544</t>
+  </si>
+  <si>
+    <t>20220324121703_8</t>
+  </si>
+  <si>
+    <t>ABRA KADABRA</t>
+  </si>
+  <si>
+    <t>Prime DC Comics Universe</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/10912.jpg?v=1552031798</t>
+  </si>
+  <si>
+    <t>20220324121703_9</t>
+  </si>
+  <si>
+    <t>METAL GARURUMON</t>
+  </si>
+  <si>
+    <t>Digimon</t>
+  </si>
+  <si>
+    <t>Agility, Cryokinesis, Divine Powers, Energy Blasts, Animal Attibutes</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/37235.jpg?v=1643900673</t>
+  </si>
+  <si>
+    <t>20220324121703_10</t>
+  </si>
+  <si>
+    <t>ALADIN</t>
+  </si>
+  <si>
+    <t>Aladin</t>
+  </si>
+  <si>
+    <t>Agility, Jump</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/19479.jpg?v=1589152692</t>
+  </si>
+  <si>
+    <t>20220324121703_11</t>
+  </si>
+  <si>
+    <t>DEADSHOT</t>
+  </si>
+  <si>
+    <t>Arkham Series</t>
+  </si>
+  <si>
+    <t>Marksmanship, Master Martial Artist, Stealth</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/18281.jpg?v=1578864241</t>
+  </si>
+  <si>
+    <t>20220324121703_12</t>
+  </si>
+  <si>
+    <t>ABRAXAS</t>
+  </si>
+  <si>
+    <t>Prime Marvel Universe</t>
+  </si>
+  <si>
+    <t>Molecular Combustion, Toxin And Disease Resistance, Teleportation, Weather Control</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/181.jpg?v=1501726512</t>
+  </si>
+  <si>
+    <t>20220324121703_13</t>
+  </si>
+  <si>
+    <t>LADY SHIVA</t>
+  </si>
+  <si>
+    <t>Master Martial Artist, Swordsmanship, Acrobatics, Element Control</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/32156.jpg?v=1626055951</t>
+  </si>
+  <si>
+    <t>20220324121703_14</t>
+  </si>
+  <si>
+    <t>METATRON</t>
+  </si>
+  <si>
+    <t>Amazon Prime Video</t>
+  </si>
+  <si>
+    <t>Angel Physiology, Holy Resistance, Omnipresence</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/40702.jpg?v=1636617083</t>
+  </si>
+  <si>
+    <t>20220324121703_15</t>
+  </si>
+  <si>
+    <t>ACNOLOGIA</t>
+  </si>
+  <si>
+    <t>Fairy Tail Verse</t>
+  </si>
+  <si>
+    <t>Absorption, Energy Blasts, Acrobatics, Agility, Reality Warping</t>
+  </si>
+  <si>
+    <t>https://www.superherodb.com/pictures2/portraits/10/050/12633.jpg?v=1614609041</t>
   </si>
 </sst>
 </file>
@@ -377,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,6 +612,286 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
